--- a/_bookdown_files/tables/introdesignscience.xlsx
+++ b/_bookdown_files/tables/introdesignscience.xlsx
@@ -35,46 +35,46 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 1: Design as an Artifact </t>
-  </si>
-  <si>
     <t xml:space="preserve">Design-science research must produce a viable artifact in the form of a construct, a model, a method, or an instantiation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 2: Problem Relevance </t>
-  </si>
-  <si>
     <t xml:space="preserve">The objective of design-science research is to develop technology-based solutions to important and relevant business problems. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 3: Design Evaluation </t>
-  </si>
-  <si>
     <t xml:space="preserve">The utility, quality, and efficacy of a design artifact must be rigorously demonstrated via well-executed evaluation methods. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 4: Research Contributions </t>
-  </si>
-  <si>
     <t xml:space="preserve">Effective design-science research must provide clear and verifiable contributions in the areas of the design artifact, design foundations, and/or design methodologies. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 5: Research Rigor </t>
-  </si>
-  <si>
     <t xml:space="preserve">Design-science research relies upon the application of rigorous methods in both the construction and evaluation of the design artifact. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 6: Design as a Search Process </t>
-  </si>
-  <si>
     <t xml:space="preserve">The search for an effective artifact requires utilizing available means to reach desired ends while satisfying laws in the problem environment. </t>
   </si>
   <si>
-    <t xml:space="preserve">Guideline 7: Communication of Research </t>
-  </si>
-  <si>
     <t xml:space="preserve">Design-science research must be presented effectively both to technology-oriented as well as management-oriented audiences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design as an Artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Relevance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Evaluation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Contributions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Rigor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design as a Search Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication of Research </t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,58 +424,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
